--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,14 +1380,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 24077-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 24077-2022</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44723</v>
+        <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1456,8 +1456,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1494,14 +1499,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44783</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1519,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1551,14 +1556,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1576,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>10.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1608,14 +1613,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44937</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1633,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1665,14 +1670,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1690,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1722,14 +1727,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45978</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1742,7 +1747,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>14.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1779,14 +1784,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44837</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1799,7 +1804,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1836,14 +1841,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46023</v>
+        <v>45631</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1856,7 +1861,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1893,14 +1898,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44951</v>
+        <v>44887</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1913,7 +1918,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1950,14 +1955,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1975,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2007,14 +2012,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45791</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2032,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2064,14 +2069,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45608</v>
+        <v>45791</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2089,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2121,14 +2126,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>44977</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2146,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2178,14 +2183,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44596</v>
+        <v>45698</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2203,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2235,14 +2240,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2260,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2292,14 +2297,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44977</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2317,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2349,14 +2354,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45698</v>
+        <v>45607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2374,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2406,14 +2411,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45959</v>
+        <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2431,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2463,14 +2468,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2488,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.4</v>
+        <v>18.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2520,14 +2525,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2540,7 +2545,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2577,14 +2582,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2597,7 +2602,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2634,14 +2639,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>44951</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2654,7 +2659,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2691,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2711,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2748,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45616</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2768,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2805,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2825,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>14.7</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2862,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2882,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.7</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2919,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45959</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2939,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2976,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>45173</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2996,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3033,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3053,7 +3058,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3090,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45631</v>
+        <v>44951</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3110,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3147,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45027</v>
+        <v>45978</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3167,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3204,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45219</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3224,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3261,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>46023</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3281,7 +3286,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3318,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45098</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3338,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3375,14 +3380,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45287</v>
+        <v>45027</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3394,13 +3399,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3437,14 +3437,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45607</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45167</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>45314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3608,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45225</v>
+        <v>45608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3722,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45173</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45314</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>45628.35625</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>10.9</v>
+        <v>0.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45748</v>
+        <v>44783</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4064,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.2</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44887</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44951</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45098</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>45219</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>44596</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4577,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44784</v>
+        <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45758</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4805,14 +4805,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45758</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4862,14 +4862,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45019</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4919,14 +4919,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45454</v>
+        <v>44937</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4938,13 +4938,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4981,14 +4976,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45632</v>
+        <v>45287</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5000,8 +4995,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5038,14 +5038,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45698</v>
+        <v>45225</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5095,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45791</v>
+        <v>45748</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45791</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>18.7</v>
+        <v>0.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45632</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45616</v>
+        <v>45698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45684.68512731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45608.57258101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45608.56115740741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45631</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44887</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>45791</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>45791</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44977</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>45698</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44421.58943287037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45497.38224537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>45827.76819444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>45827.77037037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>45237.59355324074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44951</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44978.30016203703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45616</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45546.70100694444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44978.8515625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>45959</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>45173</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45545.49151620371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44951</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>45978</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45068.56416666666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>46023</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45098</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45027</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45658.69398148148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>45338.38407407407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>45608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45628.29118055556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45404.60309027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44977.48980324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>45628.35625</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44992.50019675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44783</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45295.56476851852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>46058.61078703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>46058.61381944444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>45187.35303240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44816.38201388889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45322.55128472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>45534.50446759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>45219</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>45684.68855324074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44596</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>45621.70486111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>45758</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>45554.64908564815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>45545.69646990741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44937</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>45287</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>45225</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45748</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45545.68380787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45547.64211805556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>45632</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45684.68512731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45608.57258101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45608.56115740741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45631</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44887</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>45791</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>45791</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44977</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>45698</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>44421.58943287037</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45497.38224537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45607</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>45827.76819444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>45827.77037037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>45237.59355324074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44951</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44978.30016203703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45616</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45546.70100694444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>44978.8515625</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>45959</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>45173</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45545.49151620371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>44951</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>45978</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45068.56416666666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>46023</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45098</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45027</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45658.69398148148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>45338.38407407407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45314</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>45608</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45628.29118055556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45404.60309027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44977.48980324074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>45628.35625</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>44992.50019675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>44783</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45295.56476851852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>46058.61078703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>46058.61381944444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>45187.35303240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>44816.38201388889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45322.55128472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>45534.50446759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>45219</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>45684.68855324074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>44596</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>45621.70486111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>44784</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>45758</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>45554.64908564815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>45545.69646990741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44937</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>45287</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>45225</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45748</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45545.68380787037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45547.64211805556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>45632</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45454</v>
+        <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1454,11 +1454,6 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>KUMLA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1499,14 +1494,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>44951</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1514,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1556,14 +1551,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1571,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>10.9</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1613,14 +1608,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1628,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1670,14 +1665,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>45608</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1685,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1727,14 +1722,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1742,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>14.7</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1784,14 +1779,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>44596</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1799,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1841,14 +1836,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45631</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1856,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1898,14 +1893,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44887</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1913,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>18.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1955,14 +1950,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45167</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1970,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2012,14 +2007,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45791</v>
+        <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2027,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2069,14 +2064,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45791</v>
+        <v>45698</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2126,14 +2121,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44977</v>
+        <v>45628.35625</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2183,14 +2178,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45698</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2198,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2240,14 +2235,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45616</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2255,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2297,14 +2292,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2312,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2354,14 +2349,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45607</v>
+        <v>44837</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2374,7 +2369,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2411,14 +2406,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44837</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2431,7 +2426,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2468,14 +2463,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2488,7 +2483,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>18.7</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2525,14 +2520,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45027</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2540,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2582,14 +2577,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>45219</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2597,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2639,14 +2634,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44951</v>
+        <v>45287</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2658,8 +2653,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2753,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45616</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>44937</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.1</v>
+        <v>4.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>45959</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45173</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>14.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3095,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44951</v>
+        <v>45978</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45978</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46023</v>
+        <v>45631</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3323,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45098</v>
+        <v>46023</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3380,14 +3380,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45027</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3437,14 +3437,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45607</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45314</v>
+        <v>45167</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3608,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45608</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45225</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45173</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44783</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>10.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4064,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45748</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.2</v>
+        <v>4.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>44887</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>44951</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4406,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45219</v>
+        <v>45098</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4520,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44596</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4577,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45019</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44784</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45758</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4805,14 +4805,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>44784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4862,14 +4862,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4919,14 +4919,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44937</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4976,14 +4976,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45287</v>
+        <v>45758</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4995,13 +4995,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5038,14 +5033,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45225</v>
+        <v>45019</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5058,7 +5053,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5090,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45748</v>
+        <v>45454</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5114,8 +5109,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>45632</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45698</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45632</v>
+        <v>45791</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45698</v>
+        <v>45791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44783</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1494,14 +1494,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44951</v>
+        <v>45454</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1513,8 +1513,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1551,14 +1556,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>44937</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1576,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1608,14 +1613,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1633,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1665,14 +1670,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45608</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1690,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1722,14 +1727,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>45287</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1741,8 +1746,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1779,14 +1789,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44596</v>
+        <v>45225</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1799,7 +1809,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1836,14 +1846,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45748</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1856,7 +1866,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1893,14 +1903,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1913,7 +1923,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>18.7</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1950,14 +1960,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1980,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2007,14 +2017,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44977</v>
+        <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2037,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2064,14 +2074,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45698</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2094,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2121,14 +2131,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2151,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2178,14 +2188,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2208,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>14.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2235,14 +2245,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45616</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2265,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2292,14 +2302,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>45631</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2322,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2349,14 +2359,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44837</v>
+        <v>44887</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2379,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2406,14 +2416,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45632</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2436,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2463,14 +2473,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45167</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2493,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2520,14 +2530,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45027</v>
+        <v>45698</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2540,7 +2550,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2577,14 +2587,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45219</v>
+        <v>44977</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2597,7 +2607,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2634,14 +2644,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45287</v>
+        <v>45698</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2653,13 +2663,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2701,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2721,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2758,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45791</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2778,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2810,14 +2815,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44937</v>
+        <v>45791</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2835,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2872,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2892,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2929,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45959</v>
+        <v>45607</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2949,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2986,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3006,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>14.7</v>
+        <v>18.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3043,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3058,7 +3063,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3095,14 +3100,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45978</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3120,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3157,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>44951</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3177,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3214,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45616</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3234,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3271,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45631</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3286,7 +3291,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3323,14 +3328,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46023</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3343,7 +3348,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3380,14 +3385,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3400,7 +3405,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3437,14 +3442,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45173</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3462,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3499,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45607</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3519,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3556,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45167</v>
+        <v>45959</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,7 +3576,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3608,14 +3613,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>44951</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3633,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3670,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45225</v>
+        <v>45978</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3685,7 +3690,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3722,14 +3727,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3747,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>5.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3784,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45173</v>
+        <v>45098</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3804,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3841,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45314</v>
+        <v>45027</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3861,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3898,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>46023</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3918,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3955,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3975,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4012,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4027,7 +4032,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>10.9</v>
+        <v>4.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4064,14 +4069,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45748</v>
+        <v>45314</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4089,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4126,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>45608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4146,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4183,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4203,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.5</v>
+        <v>0.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4240,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4260,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.2</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4297,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44887</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4317,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4354,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44951</v>
+        <v>45628.35625</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4369,7 +4374,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4406,14 +4411,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45098</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4431,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4468,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>44783</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4483,7 +4488,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4520,14 +4525,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4540,7 +4545,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4577,14 +4582,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4602,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4639,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4659,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4696,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4716,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4753,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4768,7 +4773,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4805,14 +4810,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44784</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4825,7 +4830,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4862,14 +4867,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4882,7 +4887,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4919,14 +4924,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45219</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4939,7 +4944,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4976,14 +4981,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45758</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4996,7 +5001,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5033,14 +5038,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45019</v>
+        <v>44596</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5053,7 +5058,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5090,14 +5095,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45454</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5109,13 +5114,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45632</v>
+        <v>45019</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45698</v>
+        <v>44784</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45791</v>
+        <v>45758</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45791</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,14 +924,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 49616-2021</t>
+          <t>A 55757-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44455</v>
+        <v>44476.51611111111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -981,14 +981,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 55146-2021</t>
+          <t>A 55760-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44474</v>
+        <v>44476.52109953704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1038,14 +1038,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 45495-2021</t>
+          <t>A 55765-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44440.53287037037</v>
+        <v>44476</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1095,14 +1095,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 30864-2021</t>
+          <t>A 55146-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44365</v>
+        <v>44474</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1152,14 +1152,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55757-2021</t>
+          <t>A 49616-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44476.51611111111</v>
+        <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1209,14 +1209,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55760-2021</t>
+          <t>A 45495-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44476.52109953704</v>
+        <v>44440.53287037037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1266,14 +1266,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55765-2021</t>
+          <t>A 32864-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44476</v>
+        <v>44784</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1323,14 +1323,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32864-2022</t>
+          <t>A 30864-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44784</v>
+        <v>44365</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1494,14 +1494,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45454</v>
+        <v>44951</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1513,13 +1513,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1563,7 +1558,7 @@
         <v>44937</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1613,14 +1608,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1628,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1670,14 +1665,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1685,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10.9</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1727,14 +1722,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45287</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1746,13 +1741,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1789,14 +1779,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45225</v>
+        <v>45608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1809,7 +1799,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1846,14 +1836,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45748</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1866,7 +1856,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1903,14 +1893,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>45098</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1923,7 +1913,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1960,14 +1950,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>44596</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1980,7 +1970,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2017,14 +2007,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44837</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2037,7 +2027,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2074,14 +2064,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45791</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2094,7 +2084,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2131,14 +2121,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2151,7 +2141,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>14.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2188,14 +2178,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2208,7 +2198,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>14.7</v>
+        <v>5.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2245,14 +2235,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45791</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2265,7 +2255,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2302,14 +2292,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45631</v>
+        <v>44977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2322,7 +2312,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2359,14 +2349,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44887</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2379,7 +2369,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2416,14 +2406,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45632</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2436,7 +2426,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2473,14 +2463,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45167</v>
+        <v>45698</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2493,7 +2483,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2530,14 +2520,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45698</v>
+        <v>45631</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2550,7 +2540,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2587,14 +2577,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44977</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2607,7 +2597,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>18.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2644,14 +2634,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45698</v>
+        <v>45628.35625</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2664,7 +2654,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2701,14 +2691,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2721,7 +2711,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2758,14 +2748,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45791</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2778,7 +2768,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2815,14 +2805,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45791</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2835,7 +2825,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2872,14 +2862,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2892,7 +2882,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2929,14 +2919,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45607</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2949,7 +2939,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2986,14 +2976,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3006,7 +2996,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>18.7</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3043,14 +3033,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3063,7 +3053,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3100,14 +3090,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3110,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3157,14 +3147,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44951</v>
+        <v>45607</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3177,7 +3167,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3214,14 +3204,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45616</v>
+        <v>45167</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3234,7 +3224,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3271,14 +3261,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3291,7 +3281,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3328,14 +3318,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3348,7 +3338,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3385,14 +3375,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45616</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3405,7 +3395,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3442,14 +3432,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45173</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3462,7 +3452,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3499,14 +3489,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45225</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3519,7 +3509,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3556,14 +3546,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45959</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3576,7 +3566,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3613,14 +3603,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44951</v>
+        <v>45027</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3633,7 +3623,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3670,14 +3660,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45978</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3690,7 +3680,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3727,14 +3717,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45173</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3747,7 +3737,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3784,14 +3774,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45098</v>
+        <v>45219</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3804,7 +3794,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3841,14 +3831,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45027</v>
+        <v>45314</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3861,7 +3851,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3898,14 +3888,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46023</v>
+        <v>45287</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3917,8 +3907,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3955,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3975,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4012,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4032,7 +4027,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4069,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45314</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4089,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4126,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45608</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4146,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>10.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4183,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45748</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4203,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4240,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4260,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4297,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4317,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4354,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4411,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4468,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44783</v>
+        <v>44887</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4483,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4525,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>44951</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4540,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4582,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>44784</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4602,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4639,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4659,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>0.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4696,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4716,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4753,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>44837</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4773,7 +4768,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4810,14 +4805,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>45758</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4830,7 +4825,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4867,14 +4862,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45019</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4887,7 +4882,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4924,14 +4919,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45219</v>
+        <v>45454</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4943,8 +4938,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4981,14 +4981,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>45632</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5038,14 +5038,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44596</v>
+        <v>45698</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5095,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>45959</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45019</v>
+        <v>45978</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44784</v>
+        <v>46023</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45758</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,14 +924,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 55757-2021</t>
+          <t>A 49616-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44476.51611111111</v>
+        <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -981,14 +981,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 55760-2021</t>
+          <t>A 55146-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44476.52109953704</v>
+        <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1038,14 +1038,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 55765-2021</t>
+          <t>A 45495-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44476</v>
+        <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1095,14 +1095,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 55146-2021</t>
+          <t>A 30864-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44474</v>
+        <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1152,14 +1152,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 49616-2021</t>
+          <t>A 55757-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44455</v>
+        <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1209,14 +1209,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 45495-2021</t>
+          <t>A 55760-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44440.53287037037</v>
+        <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1266,14 +1266,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 32864-2022</t>
+          <t>A 55765-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44784</v>
+        <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1323,14 +1323,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 30864-2021</t>
+          <t>A 32864-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44365</v>
+        <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44783</v>
+        <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1454,6 +1454,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>KUMLA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1494,14 +1499,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44951</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1519,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1551,14 +1556,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44937</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1576,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>10.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1608,14 +1613,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1633,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1665,14 +1670,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1690,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>14.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1722,14 +1727,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1742,7 +1747,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1779,14 +1784,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45608</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1799,7 +1804,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1836,14 +1841,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1856,7 +1861,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1893,14 +1898,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45098</v>
+        <v>45698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,14 +1955,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44596</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1975,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2007,14 +2012,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45631</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2032,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2064,14 +2069,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45791</v>
+        <v>44887</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2089,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2121,14 +2126,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45167</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2146,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>14.7</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2178,14 +2183,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45791</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2203,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2235,14 +2240,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>45791</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2260,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2292,14 +2297,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44977</v>
+        <v>46023</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2317,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2349,14 +2354,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>44977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,14 +2411,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45698</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2426,7 +2431,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2463,14 +2468,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45698</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2488,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2520,14 +2525,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45631</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2540,7 +2545,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2584,7 +2589,7 @@
         <v>45827.76819444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,14 +2639,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2654,7 +2659,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.2</v>
+        <v>5.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2691,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45607</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2711,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2748,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45616</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2768,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2805,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>44837</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2825,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2862,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2882,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2919,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>44951</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2939,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.1</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2976,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2996,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3040,7 +3045,7 @@
         <v>45546.70100694444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3110,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3147,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45607</v>
+        <v>45173</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3167,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3204,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45167</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3224,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3261,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>44951</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3281,7 +3286,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3318,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3338,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3375,14 +3380,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45616</v>
+        <v>45098</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3395,7 +3400,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3432,14 +3437,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>45027</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3452,7 +3457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3489,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45225</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3509,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3546,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3566,7 +3571,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3603,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45027</v>
+        <v>45314</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3623,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3660,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>45608</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3680,7 +3685,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3717,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45173</v>
+        <v>45959</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3737,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3774,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45219</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3794,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3831,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45314</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3851,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3888,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45287</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3907,13 +3912,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>45978</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>45628.35625</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4064,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>44783</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>10.9</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45748</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4406,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44887</v>
+        <v>45219</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4520,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44951</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4577,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44784</v>
+        <v>44596</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45019</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44837</v>
+        <v>44784</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         <v>45758</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,14 +4862,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45019</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4919,14 +4919,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45454</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4938,13 +4938,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4981,14 +4976,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45632</v>
+        <v>44937</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5001,7 +4996,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5038,14 +5033,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45698</v>
+        <v>45287</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5057,8 +5052,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5095,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45959</v>
+        <v>45225</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45978</v>
+        <v>45748</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46023</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45632</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1670,14 +1670,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45632</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>14.7</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>45684.68512731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1784,14 +1784,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>14.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1841,14 +1841,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>45698</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1955,14 +1955,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45631</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2012,14 +2012,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45631</v>
+        <v>44887</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2069,14 +2069,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44887</v>
+        <v>45791</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2126,14 +2126,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45167</v>
+        <v>45791</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2183,14 +2183,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45791</v>
+        <v>45167</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2240,14 +2240,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45791</v>
+        <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2297,14 +2297,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46023</v>
+        <v>44977</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2354,14 +2354,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44977</v>
+        <v>45698</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2411,14 +2411,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45698</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2468,14 +2468,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>18.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2525,14 +2525,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>18.7</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45607</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45607</v>
+        <v>45616</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45616</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44837</v>
+        <v>44951</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44951</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45959</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3095,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45173</v>
+        <v>46023</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45978</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44951</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3323,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45173</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3380,14 +3380,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45098</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3437,14 +3437,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45027</v>
+        <v>44951</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45098</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3608,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45314</v>
+        <v>45027</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45608</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45959</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45314</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45978</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45628.35625</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4064,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>45628.35625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44783</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4406,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45219</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4520,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>45219</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4577,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44596</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>44596</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45019</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44784</v>
+        <v>45019</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4805,14 +4805,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45758</v>
+        <v>44784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4862,14 +4862,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>45758</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4919,14 +4919,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4976,14 +4976,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44937</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5033,14 +5033,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45287</v>
+        <v>44937</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5052,13 +5052,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5090,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45225</v>
+        <v>45287</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5114,8 +5109,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45748</v>
+        <v>45225</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>45748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45632</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45632</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1727,14 +1727,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>45698</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1784,14 +1784,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>14.7</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1841,14 +1841,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>14.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1898,14 +1898,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45698</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1955,14 +1955,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45631</v>
+        <v>45978</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2012,14 +2012,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44887</v>
+        <v>45631</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2069,14 +2069,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45791</v>
+        <v>44887</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2126,14 +2126,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>45791</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2183,14 +2183,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45167</v>
+        <v>45791</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2297,14 +2297,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44977</v>
+        <v>45167</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2354,14 +2354,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45698</v>
+        <v>44977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2411,14 +2411,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45698</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2468,14 +2468,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>18.7</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2525,14 +2525,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.8</v>
+        <v>18.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45607</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45616</v>
+        <v>45607</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>45616</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44951</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45959</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>44951</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45959</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3095,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46023</v>
+        <v>45173</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45978</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>44951</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3323,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45173</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3380,14 +3380,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45098</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3437,14 +3437,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44951</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45027</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45098</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3608,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45027</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45314</v>
+        <v>45608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45608</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>46023</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>45404.60309027778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>44977.48980324074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>45628.35625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44992.50019675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>45295.56476851852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45187.35303240741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>44816.38201388889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>45322.55128472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>45534.50446759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>45219</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>45684.68855324074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>44596</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>45621.70486111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>45019</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44784</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>45758</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>45554.64908564815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>45545.69646990741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44937</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>45287</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45225</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45748</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>45545.68380787037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45547.64211805556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45454</v>
+        <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1454,11 +1454,6 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>KUMLA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1499,14 +1494,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45454</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1518,8 +1513,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1556,14 +1556,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>45632</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>10.9</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1613,14 +1613,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>45698</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1670,14 +1670,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45632</v>
+        <v>44837</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1727,14 +1727,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45698</v>
+        <v>44951</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1784,14 +1784,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1841,14 +1841,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45959</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>14.7</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1898,14 +1898,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1955,14 +1955,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45978</v>
+        <v>45791</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2012,14 +2012,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45631</v>
+        <v>45791</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2069,14 +2069,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44887</v>
+        <v>45608</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2126,14 +2126,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45791</v>
+        <v>45978</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2183,14 +2183,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45791</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2240,14 +2240,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44837</v>
+        <v>44596</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2297,14 +2297,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45167</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2354,14 +2354,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44977</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.2</v>
+        <v>18.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2411,14 +2411,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45698</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2468,14 +2468,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>44977</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2525,14 +2525,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45698</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>18.7</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45616</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.8</v>
+        <v>0.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45628.35625</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45607</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45616</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45959</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44951</v>
+        <v>45027</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45219</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>45287</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3057,8 +3057,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3095,14 +3100,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3120,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3157,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45173</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3177,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3214,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3234,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3271,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44951</v>
+        <v>44937</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3286,7 +3291,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3323,14 +3328,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3343,7 +3348,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3380,14 +3385,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45098</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3400,7 +3405,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3437,14 +3442,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>46023</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3462,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3499,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45027</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3519,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>14.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3556,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,7 +3576,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>5.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3608,14 +3613,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3633,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3670,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3685,7 +3690,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3722,14 +3727,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45314</v>
+        <v>45631</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3747,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3784,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45608</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3804,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3841,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3861,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3898,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46023</v>
+        <v>45607</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3918,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3955,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45167</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3975,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4012,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4064,14 +4069,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45225</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4089,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4126,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4146,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4183,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44783</v>
+        <v>45173</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4203,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4240,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>45314</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4260,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4297,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4317,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4354,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4369,7 +4374,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.3</v>
+        <v>10.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4406,14 +4411,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>45748</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4431,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4468,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4483,7 +4488,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4520,14 +4525,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45219</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4540,7 +4545,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4577,14 +4582,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>44887</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4602,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4639,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44596</v>
+        <v>44951</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4659,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4696,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>45098</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4716,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4753,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45019</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4768,7 +4773,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4805,14 +4810,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44784</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4825,7 +4830,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4862,14 +4867,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45758</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4882,7 +4887,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4919,14 +4924,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4939,7 +4944,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4976,14 +4981,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4996,7 +5001,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5033,14 +5038,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44937</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5053,7 +5058,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5090,14 +5095,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45287</v>
+        <v>44784</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5109,13 +5114,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45225</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45748</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>45758</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45019</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44783</v>
+        <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1454,6 +1454,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>KUMLA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1494,14 +1499,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45454</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1513,13 +1518,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1556,14 +1556,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45632</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>10.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1613,14 +1613,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45698</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1670,14 +1670,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44837</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1727,14 +1727,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44951</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>14.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1784,14 +1784,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1841,14 +1841,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45959</v>
+        <v>45631</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1898,14 +1898,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>44887</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1955,14 +1955,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45791</v>
+        <v>45167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2012,14 +2012,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45791</v>
+        <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2069,14 +2069,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45608</v>
+        <v>45698</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2126,14 +2126,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45978</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2183,14 +2183,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2240,14 +2240,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44596</v>
+        <v>45607</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2297,14 +2297,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>18.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2354,14 +2354,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>18.7</v>
+        <v>5.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2411,14 +2411,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2468,14 +2468,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44977</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2525,14 +2525,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45698</v>
+        <v>45616</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45616</v>
+        <v>44951</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45628.35625</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2696,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2810,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45173</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45027</v>
+        <v>45959</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45219</v>
+        <v>44951</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45287</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3057,13 +3057,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3100,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>45098</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3120,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3157,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45978</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3177,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3214,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45027</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3234,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3271,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44937</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3291,7 +3286,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3328,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3348,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3385,14 +3380,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3405,7 +3400,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3442,14 +3437,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46023</v>
+        <v>45608</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3462,7 +3457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3499,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3519,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>14.7</v>
+        <v>0.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3556,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3576,7 +3571,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3613,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3633,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3670,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45628.35625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3727,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45631</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3747,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3784,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>44783</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3804,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3841,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3861,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3898,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45607</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3918,7 +3913,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3955,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45167</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3975,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4012,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4032,7 +4027,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4069,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45225</v>
+        <v>46023</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4089,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4126,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4146,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4183,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45173</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4203,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4240,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45314</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4260,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4297,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>45219</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4317,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4354,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4369,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10.9</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4411,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45748</v>
+        <v>44596</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4468,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4483,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4525,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4540,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4582,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44887</v>
+        <v>44784</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4602,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4639,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44951</v>
+        <v>45758</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4659,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4696,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45098</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4716,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4753,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4773,7 +4768,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.2</v>
+        <v>0.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4810,14 +4805,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>44937</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4830,7 +4825,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4867,14 +4862,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>45287</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4886,8 +4881,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4924,14 +4924,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45225</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4981,14 +4981,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>45748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5038,14 +5038,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5095,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44784</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45632</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45698</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45758</v>
+        <v>45791</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45019</v>
+        <v>45791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45684.68512731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45608.57258101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45608.56115740741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45631</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44887</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>45698</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44421.58943287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>45497.38224537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45607</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45827.76819444444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45827.77037037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>45237.59355324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>45616</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44951</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44978.30016203703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45546.70100694444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44978.8515625</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45173</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>45545.49151620371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>45959</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44951</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45068.56416666666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>45098</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>45978</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45027</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>45658.69398148148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45338.38407407407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45608</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>45628.29118055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45404.60309027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44977.48980324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45628.35625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44992.50019675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44783</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>45295.56476851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>45187.35303240741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>46058.61078703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>46058.61381944444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>46023</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44816.38201388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>45322.55128472222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>45534.50446759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45219</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>45684.68855324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44596</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>45621.70486111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44784</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>45758</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>45554.64908564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>45545.69646990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44937</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>45287</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>45225</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>45748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>45545.68380787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45547.64211805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45632</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45698</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>45791</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>45684.68740740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>45748.36186342593</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>45631.55975694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>45684.68512731481</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45608.57258101852</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>45608.56115740741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>45631</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44887</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>45167</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>45698</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44421.58943287037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>45497.38224537037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45607</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45827.76819444444</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45827.77037037037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>44837</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         <v>45237.59355324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>45616</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         <v>44951</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44978.30016203703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>45546.70100694444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44978.8515625</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45173</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>45545.49151620371</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>45959</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44951</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45068.56416666666</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>45098</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>45978</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45027</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>45658.69398148148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45338.38407407407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45608</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>45628.29118055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45404.60309027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44977.48980324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45628.35625</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44992.50019675926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44783</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>45295.56476851852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>45187.35303240741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>46058.61078703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>46058.61381944444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>46023</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>44816.38201388889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>45322.55128472222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>45534.50446759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45219</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>45684.68855324074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44596</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>45621.70486111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>44784</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>45758</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>45554.64908564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>45545.69646990741</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44937</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>45287</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>45225</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>45748</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>45545.68380787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>45547.64211805556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>45632</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45698</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>45791</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,14 +924,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 49616-2021</t>
+          <t>A 55146-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44455</v>
+        <v>44474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -981,14 +981,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 55146-2021</t>
+          <t>A 49616-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44474</v>
+        <v>44455</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45454</v>
+        <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1454,11 +1454,6 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>KUMLA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1499,14 +1494,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45608</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,7 +1514,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1556,14 +1551,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1571,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>10.9</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1613,14 +1608,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1628,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1670,14 +1665,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1685,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1727,14 +1722,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>44596</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1742,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>14.7</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1784,14 +1779,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1799,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1841,14 +1836,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45631</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1861,7 +1856,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1898,14 +1893,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44887</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1913,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1955,14 +1950,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45167</v>
+        <v>45027</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1970,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2019,7 +2014,7 @@
         <v>44977</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2076,7 +2071,7 @@
         <v>45698</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2126,14 +2121,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2141,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2183,14 +2178,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45219</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2198,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2240,14 +2235,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45607</v>
+        <v>45287</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2259,8 +2254,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2297,14 +2297,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>44937</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>18.7</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2354,14 +2354,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45628.35625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2411,14 +2411,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44837</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2468,14 +2468,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>14.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2525,14 +2525,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45616</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44951</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>45225</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45173</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45959</v>
+        <v>45631</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44951</v>
+        <v>45173</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45314</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3095,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45098</v>
+        <v>44951</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45978</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45027</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3323,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45607</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3380,14 +3380,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45314</v>
+        <v>45167</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3437,14 +3437,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45608</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.2</v>
+        <v>10.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45748</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3608,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3722,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44783</v>
+        <v>44887</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>44951</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>45098</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>44837</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4064,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46023</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45219</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>44784</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4406,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44596</v>
+        <v>45959</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4520,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45019</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4577,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44784</v>
+        <v>45758</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45758</v>
+        <v>45019</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>45978</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45454</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4767,8 +4767,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4805,14 +4810,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44937</v>
+        <v>45632</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4825,7 +4830,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4862,14 +4867,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45287</v>
+        <v>45698</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4881,13 +4886,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4924,14 +4924,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45225</v>
+        <v>45791</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4981,14 +4981,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45748</v>
+        <v>45791</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5038,14 +5038,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5095,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.2</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45632</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>18.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45698</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45791</v>
+        <v>46023</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45791</v>
+        <v>45616</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -924,14 +924,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 55146-2021</t>
+          <t>A 49616-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44474</v>
+        <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -981,14 +981,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49616-2021</t>
+          <t>A 55146-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44455</v>
+        <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44783</v>
+        <v>45454</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1454,6 +1454,11 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>KUMLA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1494,14 +1499,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45608</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1519,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1551,14 +1556,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1576,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1608,14 +1613,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1633,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>10.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1665,14 +1670,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1690,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1722,14 +1727,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44596</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1742,7 +1747,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1779,14 +1784,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1799,7 +1804,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.2</v>
+        <v>14.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1836,14 +1841,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1856,7 +1861,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1893,14 +1898,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>45632</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1913,7 +1918,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1950,14 +1955,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45027</v>
+        <v>45631</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1975,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2007,14 +2012,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44977</v>
+        <v>45698</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2032,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2064,14 +2069,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45698</v>
+        <v>44837</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2089,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2121,14 +2126,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>44887</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2146,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2178,14 +2183,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45219</v>
+        <v>45167</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2203,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2235,14 +2240,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45287</v>
+        <v>45791</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2254,13 +2259,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2297,14 +2297,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44937</v>
+        <v>45791</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2354,14 +2354,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45628.35625</v>
+        <v>44977</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2411,14 +2411,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45698</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2468,14 +2468,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>14.7</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2525,14 +2525,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2582,14 +2582,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45607</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2639,14 +2639,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>18.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45225</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>45616</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>44951</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45631</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45173</v>
+        <v>45959</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45314</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3095,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44951</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>45978</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45173</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3323,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45607</v>
+        <v>44951</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3380,14 +3380,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45167</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3437,14 +3437,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45098</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>45027</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>10.9</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45748</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3608,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45314</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3722,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44887</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44951</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45098</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44837</v>
+        <v>45628.35625</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.2</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4064,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>44783</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>46023</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44784</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4406,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45959</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4520,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45758</v>
+        <v>45219</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45019</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45978</v>
+        <v>44596</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45454</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4767,13 +4767,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4810,14 +4805,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45632</v>
+        <v>45019</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4830,7 +4825,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4867,14 +4862,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45698</v>
+        <v>44784</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4887,7 +4882,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4924,14 +4919,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45791</v>
+        <v>45758</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4944,7 +4939,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4981,14 +4976,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45791</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5001,7 +4996,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5038,14 +5033,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5058,7 +5053,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5090,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>44937</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5115,7 +5110,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5147,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45287</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5171,8 +5166,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>18.7</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45225</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46023</v>
+        <v>45748</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45616</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,14 +867,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 43262-2021</t>
+          <t>A 55146-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44432</v>
+        <v>44474</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -924,14 +924,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 49616-2021</t>
+          <t>A 43262-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44455</v>
+        <v>44432</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -981,14 +981,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 55146-2021</t>
+          <t>A 55757-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44474</v>
+        <v>44476.51611111111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1038,14 +1038,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 45495-2021</t>
+          <t>A 55760-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44440.53287037037</v>
+        <v>44476.52109953704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1095,14 +1095,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 30864-2021</t>
+          <t>A 55765-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44365</v>
+        <v>44476</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1152,14 +1152,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 55757-2021</t>
+          <t>A 45495-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44476.51611111111</v>
+        <v>44440.53287037037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1209,14 +1209,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55760-2021</t>
+          <t>A 49616-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44476.52109953704</v>
+        <v>44455</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1266,14 +1266,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55765-2021</t>
+          <t>A 30864-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44476</v>
+        <v>44365</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,14 +1380,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24077-2022</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44723</v>
+        <v>44783</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 24077-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45454</v>
+        <v>44723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1456,13 +1456,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1499,14 +1494,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>44977</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1556,14 +1551,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45698</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1576,7 +1571,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1613,14 +1608,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1633,7 +1628,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1670,14 +1665,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1690,7 +1685,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1727,14 +1722,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>45628.35625</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1747,7 +1742,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1784,14 +1779,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1804,7 +1799,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>14.7</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1848,7 +1843,7 @@
         <v>45608.56115740741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1898,14 +1893,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45632</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,7 +1913,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1955,14 +1950,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 57944-2024</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45631</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1975,7 +1970,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2012,14 +2007,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45698</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2032,7 +2027,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2069,14 +2064,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44837</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2089,7 +2084,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2126,14 +2121,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44887</v>
+        <v>44951</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2146,7 +2141,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2183,14 +2178,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45167</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2203,7 +2198,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2240,14 +2235,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45791</v>
+        <v>44784</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2260,7 +2255,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2297,14 +2292,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45791</v>
+        <v>45027</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,7 +2312,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2354,14 +2349,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44977</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2411,14 +2406,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45698</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2431,7 +2426,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2468,14 +2463,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2488,7 +2483,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2525,14 +2520,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45219</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2545,7 +2540,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2582,14 +2577,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45607</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2602,7 +2597,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>14.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2639,14 +2634,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45287</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2658,8 +2653,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>18.7</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2696,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2753,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45616</v>
+        <v>45608</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2810,14 +2810,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 55340-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>45621.70486111111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44951</v>
+        <v>45758</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45959</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>44596</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3095,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45978</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45173</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>45454</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3285,8 +3285,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3323,14 +3328,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44951</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3343,7 +3348,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3380,14 +3385,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 57944-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45631</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3400,7 +3405,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3437,14 +3442,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 12-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45098</v>
+        <v>45658.69398148148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3457,7 +3462,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3494,14 +3499,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45027</v>
+        <v>44937</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3514,7 +3519,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3551,14 +3556,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12-2025</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45658.69398148148</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,7 +3576,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3608,14 +3613,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45607</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3628,7 +3633,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3665,14 +3670,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45314</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3685,7 +3690,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3722,14 +3727,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45608</v>
+        <v>45167</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3742,7 +3747,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3779,14 +3784,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45632</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,7 +3804,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3836,14 +3841,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45698</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,7 +3861,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3893,14 +3898,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>44837</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3913,7 +3918,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3950,14 +3955,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45791</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3970,7 +3975,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4007,14 +4012,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>45791</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4027,7 +4032,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4064,14 +4069,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44783</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4084,7 +4089,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4121,14 +4126,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45225</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4141,7 +4146,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4178,14 +4183,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,7 +4203,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4235,14 +4240,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4255,7 +4260,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>18.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4292,14 +4297,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46023</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4312,7 +4317,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4349,14 +4354,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>45173</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4369,7 +4374,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4406,14 +4411,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45314</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4426,7 +4431,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4463,14 +4468,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4483,7 +4488,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4520,14 +4525,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45959</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4540,7 +4545,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4577,14 +4582,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45219</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4597,7 +4602,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>10.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4634,14 +4639,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>45616</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4654,7 +4659,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4691,14 +4696,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44596</v>
+        <v>45748</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4711,7 +4716,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4748,14 +4753,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55340-2024</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45621.70486111111</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4768,7 +4773,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4805,14 +4810,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45019</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4825,7 +4830,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4862,14 +4867,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44784</v>
+        <v>45978</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4882,7 +4887,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4919,14 +4924,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45758</v>
+        <v>44887</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4939,7 +4944,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4976,14 +4981,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>44951</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4996,7 +5001,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.3</v>
+        <v>4.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5033,14 +5038,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45098</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5053,7 +5058,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5090,14 +5095,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44937</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5110,7 +5115,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5147,14 +5152,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45287</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5166,13 +5171,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5209,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45225</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45748</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>46023</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.2</v>
+        <v>3.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -867,14 +867,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 55146-2021</t>
+          <t>A 43262-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44474</v>
+        <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -924,14 +924,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 43262-2021</t>
+          <t>A 49616-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44432</v>
+        <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -981,14 +981,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 55757-2021</t>
+          <t>A 55146-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44476.51611111111</v>
+        <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1038,14 +1038,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 55760-2021</t>
+          <t>A 45495-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44476.52109953704</v>
+        <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1095,14 +1095,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 55765-2021</t>
+          <t>A 30864-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44476</v>
+        <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1152,14 +1152,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 45495-2021</t>
+          <t>A 55757-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44440.53287037037</v>
+        <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1209,14 +1209,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 49616-2021</t>
+          <t>A 55760-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44455</v>
+        <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1266,14 +1266,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 30864-2021</t>
+          <t>A 55765-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44365</v>
+        <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,14 +1380,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 32725-2022</t>
+          <t>A 24077-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44783</v>
+        <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1437,14 +1437,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 24077-2022</t>
+          <t>A 32725-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44723</v>
+        <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1494,14 +1494,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 8612-2023</t>
+          <t>A 3873-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44977</v>
+        <v>44951</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1551,14 +1551,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 6267-2025</t>
+          <t>A 8852-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45698</v>
+        <v>44978.8515625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1608,14 +1608,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 3920-2024</t>
+          <t>A 36237-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45322.55128472222</v>
+        <v>45534.50446759259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1665,14 +1665,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 8460-2023</t>
+          <t>A 52202-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44977.48980324074</v>
+        <v>45608</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1722,14 +1722,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 56730-2024</t>
+          <t>A 23221-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45628.35625</v>
+        <v>45791</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1779,14 +1779,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 4100-2025</t>
+          <t>A 23225-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45684.68512731481</v>
+        <v>45791</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1836,14 +1836,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52180-2024</t>
+          <t>A 40275-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45608.56115740741</v>
+        <v>45554.64908564815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1893,14 +1893,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 11141-2023</t>
+          <t>A 5781-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44992.50019675926</v>
+        <v>44596</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.1</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1950,14 +1950,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40974-2021</t>
+          <t>A 38871-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44421.58943287037</v>
+        <v>45547.64211805556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2007,14 +2007,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 323-2024</t>
+          <t>A 30465-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45295.56476851852</v>
+        <v>45827.76819444444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>18.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2064,14 +2064,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4102-2025</t>
+          <t>A 30466-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45684.68740740741</v>
+        <v>45827.77037037037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2121,14 +2121,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3873-2023</t>
+          <t>A 8612-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44951</v>
+        <v>44977</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2178,14 +2178,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 8852-2023</t>
+          <t>A 6267-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44978.8515625</v>
+        <v>45698</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2235,14 +2235,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32859-2022</t>
+          <t>A 43706-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44784</v>
+        <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2292,14 +2292,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 16132-2023</t>
+          <t>A 56730-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45027</v>
+        <v>45628.35625</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2349,14 +2349,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36237-2024</t>
+          <t>A 52180-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45534.50446759259</v>
+        <v>45608.56115740741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2406,14 +2406,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 38193-2024</t>
+          <t>A 11141-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45545.49151620371</v>
+        <v>44992.50019675926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,14 +2463,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 8687-2023</t>
+          <t>A 54080-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44978.30016203703</v>
+        <v>45616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2520,14 +2520,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 51239-2023</t>
+          <t>A 40974-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45219</v>
+        <v>44421.58943287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2577,14 +2577,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52192-2024</t>
+          <t>A 4102-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45608.57258101852</v>
+        <v>45684.68740740741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>14.7</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2634,14 +2634,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 65076-2023</t>
+          <t>A 16132-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45287</v>
+        <v>45027</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2653,13 +2653,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2696,14 +2691,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 21921-2023</t>
+          <t>A 51239-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45068.56416666666</v>
+        <v>45219</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2716,7 +2711,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.7</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2753,14 +2748,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 52202-2024</t>
+          <t>A 65076-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45608</v>
+        <v>45287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2772,8 +2767,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>45621.70486111111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2867,14 +2867,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17920-2025</t>
+          <t>A 30806-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45758</v>
+        <v>45497.38224537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2924,14 +2924,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15356-2023</t>
+          <t>A 1478-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45019</v>
+        <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2981,14 +2981,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40275-2024</t>
+          <t>A 6315-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45554.64908564815</v>
+        <v>45338.38407407407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.3</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3038,14 +3038,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5781-2022</t>
+          <t>A 53435-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44596</v>
+        <v>45959</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3095,14 +3095,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38871-2024</t>
+          <t>A 56732-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45547.64211805556</v>
+        <v>45978</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3152,14 +3152,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38335-2024</t>
+          <t>A 52192-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45545.68380787037</v>
+        <v>45608.57258101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.2</v>
+        <v>14.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3209,14 +3209,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38343-2024</t>
+          <t>A 21921-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45545.69646990741</v>
+        <v>45068.56416666666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.2</v>
+        <v>5.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3266,14 +3266,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23648-2024</t>
+          <t>A 38335-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45454</v>
+        <v>45545.68380787037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3285,13 +3285,8 @@
           <t>KUMLA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3328,14 +3323,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30806-2024</t>
+          <t>A 38343-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45497.38224537037</v>
+        <v>45545.69646990741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3348,7 +3343,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3392,7 +3387,7 @@
         <v>45631</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3449,7 +3444,7 @@
         <v>45658.69398148148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3499,14 +3494,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1478-2023</t>
+          <t>A 38768-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44937</v>
+        <v>44816.38201388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3519,7 +3514,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3556,14 +3551,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38768-2022</t>
+          <t>A 51940-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44816.38201388889</v>
+        <v>45607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3576,7 +3571,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3613,14 +3608,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51940-2024</t>
+          <t>A 40042-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45607</v>
+        <v>45167</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3633,7 +3628,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3670,14 +3665,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6315-2024</t>
+          <t>A 4103-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45338.38407407407</v>
+        <v>45684.68855324074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3690,7 +3685,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3727,14 +3722,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 40042-2023</t>
+          <t>A 54080-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45167</v>
+        <v>45225</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3747,7 +3742,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3784,14 +3779,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58657-2024</t>
+          <t>A 7272-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45632</v>
+        <v>46058.61381944444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3804,7 +3799,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3841,14 +3836,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6266-2025</t>
+          <t>A 43661-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45698</v>
+        <v>45187.35303240741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3861,7 +3856,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3898,14 +3893,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43706-2022</t>
+          <t>A 40897-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44837</v>
+        <v>45173</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3918,7 +3913,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3955,14 +3950,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23221-2025</t>
+          <t>A 7270-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45791</v>
+        <v>46058.61078703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3975,7 +3970,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4012,14 +4007,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 23225-2025</t>
+          <t>A 2653-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45791</v>
+        <v>45314</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4032,7 +4027,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4069,14 +4064,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4103-2025</t>
+          <t>A 55208-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45684.68855324074</v>
+        <v>45237.59355324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4089,7 +4084,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4126,14 +4121,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 54080-2023</t>
+          <t>A 601-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45225</v>
+        <v>46023</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4146,7 +4141,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4183,14 +4178,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43661-2023</t>
+          <t>A 15626-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45187.35303240741</v>
+        <v>45748.36186342593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4203,7 +4198,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.2</v>
+        <v>10.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4240,14 +4235,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30465-2025</t>
+          <t>A 15615-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45827.76819444444</v>
+        <v>45748</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4260,7 +4255,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>18.7</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4297,14 +4292,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30466-2025</t>
+          <t>A 57949-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45827.77037037037</v>
+        <v>45631.55975694444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4317,7 +4312,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4354,14 +4349,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40897-2023</t>
+          <t>A 56712-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45173</v>
+        <v>45628.29118055556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4374,7 +4369,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4411,14 +4406,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2653-2024</t>
+          <t>A 55442-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45314</v>
+        <v>44887</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4431,7 +4426,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4468,14 +4463,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55208-2023</t>
+          <t>A 3872-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45237.59355324074</v>
+        <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4488,7 +4483,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4525,14 +4520,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53435-2025</t>
+          <t>A 29680-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45959</v>
+        <v>45098</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4545,7 +4540,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4582,14 +4577,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 15626-2025</t>
+          <t>A 15781-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45748.36186342593</v>
+        <v>45404.60309027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4602,7 +4597,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>10.9</v>
+        <v>4.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4639,14 +4634,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54080-2024</t>
+          <t>A 38615-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45616</v>
+        <v>45546.70100694444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4659,7 +4654,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4696,14 +4691,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15615-2025</t>
+          <t>A 3920-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45748</v>
+        <v>45322.55128472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4716,7 +4711,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4753,14 +4748,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 57949-2024</t>
+          <t>A 8460-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45631.55975694444</v>
+        <v>44977.48980324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4773,7 +4768,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4810,14 +4805,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56712-2024</t>
+          <t>A 4100-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45628.29118055556</v>
+        <v>45684.68512731481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4830,7 +4825,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4867,14 +4862,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 56732-2025</t>
+          <t>A 323-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45978</v>
+        <v>45295.56476851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4887,7 +4882,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4924,14 +4919,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55442-2022</t>
+          <t>A 32859-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44887</v>
+        <v>44784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4944,7 +4939,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4981,14 +4976,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3872-2023</t>
+          <t>A 38193-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44951</v>
+        <v>45545.49151620371</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5001,7 +4996,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>0.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5038,14 +5033,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29680-2023</t>
+          <t>A 8687-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45098</v>
+        <v>44978.30016203703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5058,7 +5053,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5095,14 +5090,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15781-2024</t>
+          <t>A 17920-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45404.60309027778</v>
+        <v>45758</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5115,7 +5110,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5152,14 +5147,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38615-2024</t>
+          <t>A 15356-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45546.70100694444</v>
+        <v>45019</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5172,7 +5167,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5209,14 +5204,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7272-2026</t>
+          <t>A 23648-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46058.61381944444</v>
+        <v>45454</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5228,8 +5223,13 @@
           <t>KUMLA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5266,14 +5266,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7270-2026</t>
+          <t>A 58657-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46058.61078703704</v>
+        <v>45632</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5323,14 +5323,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 601-2026</t>
+          <t>A 6266-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46023</v>
+        <v>45698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>

--- a/Översikt KUMLA.xlsx
+++ b/Översikt KUMLA.xlsx
@@ -575,7 +575,7 @@
         <v>44879</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45621.63222222222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44432.35989583333</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         <v>44365</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44432</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44455</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44440.53287037037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         <v>44365</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>44476.51611111111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>44476.52109953704</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44476</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>44784</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>44723</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>44951</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44978.8515625</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>45534.50446759259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45608</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45791</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45791</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>45554.64908564815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44596</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>45547.64211805556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>45827.76819444444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45827.77037037037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44977</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45698</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45628.35625</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>45608.56115740741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>44992.50019675926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45616</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>44421.58943287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45684.68740740741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>45027</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>45219</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>45287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>45621.70486111111</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>45497.38224537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         <v>44937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>45338.38407407407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>45959</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         <v>45978</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>45608.57258101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         <v>45068.56416666666</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         <v>45545.68380787037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45545.69646990741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45631</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45658.69398148148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>44816.38201388889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>45607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>45167</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>45684.68855324074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>45225</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>46058.61381944444</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         <v>45187.35303240741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         <v>45173</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         <v>46058.61078703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45314</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>45237.59355324074</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         <v>46023</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>45748.36186342593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>45748</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45631.55975694444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         <v>45628.29118055556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44887</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44951</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>45098</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>45404.60309027778</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         <v>45546.70100694444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         <v>45322.55128472222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44977.48980324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>45684.68512731481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>45295.56476851852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44784</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>45545.49151620371</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44978.30016203703</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>45758</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>45019</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>45454</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>45632</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>45698</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
